--- a/variant_09/09/9.xlsx
+++ b/variant_09/09/9.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\К-ЕГЭ- 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -142,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,7 +185,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -478,7 +469,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -554,8 +545,24 @@
       <c r="Y2" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4">
+        <f>MAX(B2:Y2)</f>
+        <v>25.7</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>MIN(B2:Y2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>Z2-AA2</f>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="AD2">
+        <f>COUNTIF(AB2:AB92,"&gt;17")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -631,8 +638,20 @@
       <c r="Y3" s="4">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z66" si="0">MAX(B3:Y3)</f>
+        <v>26</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA66" si="1">MIN(B3:Y3)</f>
+        <v>10.3</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB66" si="2">Z3-AA3</f>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -708,8 +727,20 @@
       <c r="Y4" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" si="2"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -785,8 +816,20 @@
       <c r="Y5" s="4">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="4">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="1"/>
+        <v>10.7</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -862,8 +905,20 @@
       <c r="Y6" s="4">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="4">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -939,8 +994,20 @@
       <c r="Y7" s="4">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="2"/>
+        <v>14.799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1016,8 +1083,20 @@
       <c r="Y8" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="4">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="2"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1093,8 +1172,20 @@
       <c r="Y9" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="2"/>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1170,8 +1261,20 @@
       <c r="Y10" s="4">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="2"/>
+        <v>17.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1247,8 +1350,20 @@
       <c r="Y11" s="4">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" si="2"/>
+        <v>13.900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1324,8 +1439,20 @@
       <c r="Y12" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AB12" s="4">
+        <f t="shared" si="2"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1401,8 +1528,20 @@
       <c r="Y13" s="4">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="4">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AB13" s="4">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1478,8 +1617,20 @@
       <c r="Y14" s="4">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="2"/>
+        <v>15.999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1555,8 +1706,20 @@
       <c r="Y15" s="4">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="4">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="2"/>
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1632,8 +1795,20 @@
       <c r="Y16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="4">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" si="2"/>
+        <v>16.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1709,8 +1884,20 @@
       <c r="Y17" s="4">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="4">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="2"/>
+        <v>12.799999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1786,8 +1973,20 @@
       <c r="Y18" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="1"/>
+        <v>10.9</v>
+      </c>
+      <c r="AB18" s="4">
+        <f t="shared" si="2"/>
+        <v>14.299999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1863,8 +2062,20 @@
       <c r="Y19" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>25.3</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="2"/>
+        <v>16.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1940,8 +2151,20 @@
       <c r="Y20" s="4">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="4">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="2"/>
+        <v>15.799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2017,8 +2240,20 @@
       <c r="Y21" s="4">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2094,8 +2329,20 @@
       <c r="Y22" s="4">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="4">
+        <f t="shared" si="0"/>
+        <v>25.3</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="2"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2171,8 +2418,20 @@
       <c r="Y23" s="4">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="4">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" si="2"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2248,8 +2507,20 @@
       <c r="Y24" s="4">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" s="4">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="AB24" s="4">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2325,8 +2596,20 @@
       <c r="Y25" s="4">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB25" s="4">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2402,8 +2685,20 @@
       <c r="Y26" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="AB26" s="4">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2479,8 +2774,20 @@
       <c r="Y27" s="4">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="4">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="AB27" s="4">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2556,8 +2863,20 @@
       <c r="Y28" s="4">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
+      <c r="AB28" s="4">
+        <f t="shared" si="2"/>
+        <v>15.700000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2633,8 +2952,20 @@
       <c r="Y29" s="4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA29" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB29" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2710,8 +3041,20 @@
       <c r="Y30" s="4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" s="4">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="AB30" s="4">
+        <f t="shared" si="2"/>
+        <v>14.600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2787,8 +3130,20 @@
       <c r="Y31" s="4">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="AA31" s="4">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="AB31" s="4">
+        <f t="shared" si="2"/>
+        <v>15.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -2864,8 +3219,20 @@
       <c r="Y32" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AB32" s="4">
+        <f t="shared" si="2"/>
+        <v>14.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43222</v>
       </c>
@@ -2941,8 +3308,20 @@
       <c r="Y33" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" s="4">
+        <f t="shared" si="0"/>
+        <v>29.8</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="AB33" s="4">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43223</v>
       </c>
@@ -3018,8 +3397,20 @@
       <c r="Y34" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="1"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AB34" s="4">
+        <f t="shared" si="2"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43224</v>
       </c>
@@ -3095,8 +3486,20 @@
       <c r="Y35" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="4">
+        <f t="shared" si="0"/>
+        <v>30.4</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AB35" s="4">
+        <f t="shared" si="2"/>
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43225</v>
       </c>
@@ -3172,8 +3575,20 @@
       <c r="Y36" s="4">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" s="4">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="1"/>
+        <v>13.6</v>
+      </c>
+      <c r="AB36" s="4">
+        <f t="shared" si="2"/>
+        <v>17.299999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43226</v>
       </c>
@@ -3249,8 +3664,20 @@
       <c r="Y37" s="4">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" s="4">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AB37" s="4">
+        <f t="shared" si="2"/>
+        <v>14.899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43227</v>
       </c>
@@ -3326,8 +3753,20 @@
       <c r="Y38" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38" s="4">
+        <f t="shared" si="0"/>
+        <v>30.1</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="1"/>
+        <v>14.1</v>
+      </c>
+      <c r="AB38" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43228</v>
       </c>
@@ -3403,8 +3842,20 @@
       <c r="Y39" s="4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39" s="4">
+        <f t="shared" si="0"/>
+        <v>30.3</v>
+      </c>
+      <c r="AA39" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AB39" s="4">
+        <f t="shared" si="2"/>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43229</v>
       </c>
@@ -3480,8 +3931,20 @@
       <c r="Y40" s="4">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AB40" s="4">
+        <f t="shared" si="2"/>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43230</v>
       </c>
@@ -3557,8 +4020,20 @@
       <c r="Y41" s="4">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="AB41" s="4">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43231</v>
       </c>
@@ -3634,8 +4109,20 @@
       <c r="Y42" s="4">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" s="4">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AA42" s="4">
+        <f t="shared" si="1"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AB42" s="4">
+        <f t="shared" si="2"/>
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43232</v>
       </c>
@@ -3711,8 +4198,20 @@
       <c r="Y43" s="4">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43" s="4">
+        <f t="shared" si="0"/>
+        <v>29.8</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="1"/>
+        <v>15.3</v>
+      </c>
+      <c r="AB43" s="4">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43233</v>
       </c>
@@ -3788,8 +4287,20 @@
       <c r="Y44" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44" s="4">
+        <f t="shared" si="0"/>
+        <v>30.2</v>
+      </c>
+      <c r="AA44" s="4">
+        <f t="shared" si="1"/>
+        <v>13.3</v>
+      </c>
+      <c r="AB44" s="4">
+        <f t="shared" si="2"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43234</v>
       </c>
@@ -3865,8 +4376,20 @@
       <c r="Y45" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" s="4">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AA45" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AB45" s="4">
+        <f t="shared" si="2"/>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43235</v>
       </c>
@@ -3942,8 +4465,20 @@
       <c r="Y46" s="4">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46" s="4">
+        <f t="shared" si="0"/>
+        <v>30.3</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
+      <c r="AB46" s="4">
+        <f t="shared" si="2"/>
+        <v>15.200000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43236</v>
       </c>
@@ -4019,8 +4554,20 @@
       <c r="Y47" s="4">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47" s="4">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+      <c r="AB47" s="4">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43237</v>
       </c>
@@ -4096,8 +4643,20 @@
       <c r="Y48" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA48" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AB48" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4173,8 +4732,20 @@
       <c r="Y49" s="4">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="AA49" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="AB49" s="4">
+        <f t="shared" si="2"/>
+        <v>16.099999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4250,8 +4821,20 @@
       <c r="Y50" s="4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA50" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AB50" s="4">
+        <f t="shared" si="2"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4327,8 +4910,20 @@
       <c r="Y51" s="4">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA51" s="4">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="AB51" s="4">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4404,8 +4999,20 @@
       <c r="Y52" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52" s="4">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="AA52" s="4">
+        <f t="shared" si="1"/>
+        <v>13.6</v>
+      </c>
+      <c r="AB52" s="4">
+        <f t="shared" si="2"/>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4481,8 +5088,20 @@
       <c r="Y53" s="4">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" s="4">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="AA53" s="4">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+      <c r="AB53" s="4">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4558,8 +5177,20 @@
       <c r="Y54" s="4">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA54" s="4">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="AB54" s="4">
+        <f t="shared" si="2"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4635,8 +5266,20 @@
       <c r="Y55" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55" s="4">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AA55" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="AB55" s="4">
+        <f t="shared" si="2"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4712,8 +5355,20 @@
       <c r="Y56" s="4">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="AA56" s="4">
+        <f t="shared" si="1"/>
+        <v>13.6</v>
+      </c>
+      <c r="AB56" s="4">
+        <f t="shared" si="2"/>
+        <v>16.299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -4789,8 +5444,20 @@
       <c r="Y57" s="4">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AA57" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AB57" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -4866,8 +5533,20 @@
       <c r="Y58" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="4">
+        <f t="shared" si="0"/>
+        <v>29.6</v>
+      </c>
+      <c r="AA58" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="AB58" s="4">
+        <f t="shared" si="2"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -4943,8 +5622,20 @@
       <c r="Y59" s="4">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA59" s="4">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+      <c r="AB59" s="4">
+        <f t="shared" si="2"/>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -5020,8 +5711,20 @@
       <c r="Y60" s="4">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="AA60" s="4">
+        <f t="shared" si="1"/>
+        <v>14.6</v>
+      </c>
+      <c r="AB60" s="4">
+        <f t="shared" si="2"/>
+        <v>15.299999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5097,8 +5800,20 @@
       <c r="Y61" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA61" s="4">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="AB61" s="4">
+        <f t="shared" si="2"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5174,8 +5889,20 @@
       <c r="Y62" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="4">
+        <f t="shared" si="0"/>
+        <v>29.3</v>
+      </c>
+      <c r="AA62" s="4">
+        <f t="shared" si="1"/>
+        <v>15.3</v>
+      </c>
+      <c r="AB62" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5251,8 +5978,20 @@
       <c r="Y63" s="4">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="4">
+        <f t="shared" si="0"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AA63" s="4">
+        <f t="shared" si="1"/>
+        <v>23.6</v>
+      </c>
+      <c r="AB63" s="4">
+        <f t="shared" si="2"/>
+        <v>13.699999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5328,8 +6067,20 @@
       <c r="Y64" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" s="4">
+        <f t="shared" si="0"/>
+        <v>37.1</v>
+      </c>
+      <c r="AA64" s="4">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+      <c r="AB64" s="4">
+        <f t="shared" si="2"/>
+        <v>14.700000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5405,8 +6156,20 @@
       <c r="Y65" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65" s="4">
+        <f t="shared" si="0"/>
+        <v>37.9</v>
+      </c>
+      <c r="AA65" s="4">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="AB65" s="4">
+        <f t="shared" si="2"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5482,8 +6245,20 @@
       <c r="Y66" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" s="4">
+        <f t="shared" si="0"/>
+        <v>37.9</v>
+      </c>
+      <c r="AA66" s="4">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="AB66" s="4">
+        <f t="shared" si="2"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5559,8 +6334,20 @@
       <c r="Y67" s="4">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67" s="4">
+        <f t="shared" ref="Z67:Z92" si="3">MAX(B67:Y67)</f>
+        <v>37.4</v>
+      </c>
+      <c r="AA67" s="4">
+        <f t="shared" ref="AA67:AA92" si="4">MIN(B67:Y67)</f>
+        <v>22.5</v>
+      </c>
+      <c r="AB67" s="4">
+        <f t="shared" ref="AB67:AB92" si="5">Z67-AA67</f>
+        <v>14.899999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5636,8 +6423,20 @@
       <c r="Y68" s="4">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" s="4">
+        <f t="shared" si="3"/>
+        <v>37.4</v>
+      </c>
+      <c r="AA68" s="4">
+        <f t="shared" si="4"/>
+        <v>22.1</v>
+      </c>
+      <c r="AB68" s="4">
+        <f t="shared" si="5"/>
+        <v>15.299999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5713,8 +6512,20 @@
       <c r="Y69" s="4">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69" s="4">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA69" s="4">
+        <f t="shared" si="4"/>
+        <v>22.4</v>
+      </c>
+      <c r="AB69" s="4">
+        <f t="shared" si="5"/>
+        <v>15.300000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -5790,8 +6601,20 @@
       <c r="Y70" s="4">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70" s="4">
+        <f t="shared" si="3"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AA70" s="4">
+        <f t="shared" si="4"/>
+        <v>21.7</v>
+      </c>
+      <c r="AB70" s="4">
+        <f t="shared" si="5"/>
+        <v>14.000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -5867,8 +6690,20 @@
       <c r="Y71" s="4">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71" s="4">
+        <f t="shared" si="3"/>
+        <v>36.4</v>
+      </c>
+      <c r="AA71" s="4">
+        <f t="shared" si="4"/>
+        <v>23.3</v>
+      </c>
+      <c r="AB71" s="4">
+        <f t="shared" si="5"/>
+        <v>13.099999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -5944,8 +6779,20 @@
       <c r="Y72" s="4">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72" s="4">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA72" s="4">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="AB72" s="4">
+        <f t="shared" si="5"/>
+        <v>15.200000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -6021,8 +6868,20 @@
       <c r="Y73" s="4">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73" s="4">
+        <f t="shared" si="3"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA73" s="4">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
+      </c>
+      <c r="AB73" s="4">
+        <f t="shared" si="5"/>
+        <v>16.299999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6098,8 +6957,20 @@
       <c r="Y74" s="4">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74" s="4">
+        <f t="shared" si="3"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AA74" s="4">
+        <f t="shared" si="4"/>
+        <v>21.7</v>
+      </c>
+      <c r="AB74" s="4">
+        <f t="shared" si="5"/>
+        <v>15.000000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6175,8 +7046,20 @@
       <c r="Y75" s="4">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75" s="4">
+        <f t="shared" si="3"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AA75" s="4">
+        <f t="shared" si="4"/>
+        <v>21.4</v>
+      </c>
+      <c r="AB75" s="4">
+        <f t="shared" si="5"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6252,8 +7135,20 @@
       <c r="Y76" s="4">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76" s="4">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="AA76" s="4">
+        <f t="shared" si="4"/>
+        <v>22.6</v>
+      </c>
+      <c r="AB76" s="4">
+        <f t="shared" si="5"/>
+        <v>14.899999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6329,8 +7224,20 @@
       <c r="Y77" s="4">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77" s="4">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA77" s="4">
+        <f t="shared" si="4"/>
+        <v>20.2</v>
+      </c>
+      <c r="AB77" s="4">
+        <f t="shared" si="5"/>
+        <v>17.500000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6406,8 +7313,20 @@
       <c r="Y78" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78" s="4">
+        <f t="shared" si="3"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AA78" s="4">
+        <f t="shared" si="4"/>
+        <v>22.4</v>
+      </c>
+      <c r="AB78" s="4">
+        <f t="shared" si="5"/>
+        <v>14.899999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6483,8 +7402,20 @@
       <c r="Y79" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79" s="4">
+        <f t="shared" si="3"/>
+        <v>36.5</v>
+      </c>
+      <c r="AA79" s="4">
+        <f t="shared" si="4"/>
+        <v>22.1</v>
+      </c>
+      <c r="AB79" s="4">
+        <f t="shared" si="5"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6560,8 +7491,20 @@
       <c r="Y80" s="4">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AA80" s="4">
+        <f t="shared" si="4"/>
+        <v>22.1</v>
+      </c>
+      <c r="AB80" s="4">
+        <f t="shared" si="5"/>
+        <v>15.899999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6637,8 +7580,20 @@
       <c r="Y81" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81" s="4">
+        <f t="shared" si="3"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AA81" s="4">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="AB81" s="4">
+        <f t="shared" si="5"/>
+        <v>14.200000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -6714,8 +7669,20 @@
       <c r="Y82" s="4">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82" s="4">
+        <f t="shared" si="3"/>
+        <v>37.6</v>
+      </c>
+      <c r="AA82" s="4">
+        <f t="shared" si="4"/>
+        <v>20.2</v>
+      </c>
+      <c r="AB82" s="4">
+        <f t="shared" si="5"/>
+        <v>17.400000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -6791,8 +7758,20 @@
       <c r="Y83" s="4">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83" s="4">
+        <f t="shared" si="3"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AA83" s="4">
+        <f t="shared" si="4"/>
+        <v>22.3</v>
+      </c>
+      <c r="AB83" s="4">
+        <f t="shared" si="5"/>
+        <v>14.499999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -6868,8 +7847,20 @@
       <c r="Y84" s="4">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AA84" s="4">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AB84" s="4">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -6945,8 +7936,20 @@
       <c r="Y85" s="4">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z85" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AA85" s="4">
+        <f t="shared" si="4"/>
+        <v>21.7</v>
+      </c>
+      <c r="AB85" s="4">
+        <f t="shared" si="5"/>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -7022,8 +8025,20 @@
       <c r="Y86" s="4">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z86" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AA86" s="4">
+        <f t="shared" si="4"/>
+        <v>20.2</v>
+      </c>
+      <c r="AB86" s="4">
+        <f t="shared" si="5"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7099,8 +8114,20 @@
       <c r="Y87" s="4">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z87" s="4">
+        <f t="shared" si="3"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA87" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AB87" s="4">
+        <f t="shared" si="5"/>
+        <v>14.799999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7176,8 +8203,20 @@
       <c r="Y88" s="4">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z88" s="4">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AA88" s="4">
+        <f t="shared" si="4"/>
+        <v>21.8</v>
+      </c>
+      <c r="AB88" s="4">
+        <f t="shared" si="5"/>
+        <v>15.400000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7253,8 +8292,20 @@
       <c r="Y89" s="4">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z89" s="4">
+        <f t="shared" si="3"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA89" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AB89" s="4">
+        <f t="shared" si="5"/>
+        <v>14.799999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7330,8 +8381,20 @@
       <c r="Y90" s="4">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z90" s="4">
+        <f t="shared" si="3"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AA90" s="4">
+        <f t="shared" si="4"/>
+        <v>20.9</v>
+      </c>
+      <c r="AB90" s="4">
+        <f t="shared" si="5"/>
+        <v>15.300000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7407,8 +8470,20 @@
       <c r="Y91" s="4">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91" s="4">
+        <f t="shared" si="3"/>
+        <v>37.6</v>
+      </c>
+      <c r="AA91" s="4">
+        <f t="shared" si="4"/>
+        <v>21.8</v>
+      </c>
+      <c r="AB91" s="4">
+        <f t="shared" si="5"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7484,11 +8559,23 @@
       <c r="Y92" s="4">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92" s="4">
+        <f t="shared" si="3"/>
+        <v>37.4</v>
+      </c>
+      <c r="AA92" s="4">
+        <f t="shared" si="4"/>
+        <v>22.3</v>
+      </c>
+      <c r="AB92" s="4">
+        <f t="shared" si="5"/>
+        <v>15.099999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
